--- a/RPS Course - Microservices.xlsx
+++ b/RPS Course - Microservices.xlsx
@@ -1,42 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShashankVatsa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\RPS\Ericsson\Dec 2023 MicroServices Batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E8E2C18-E8FC-48F1-9BD1-D60B4288271A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D38295E-B500-40D4-9ABE-255CD2563D75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C773A19F-2F35-4D90-90CD-A833D4B38AD3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C773A19F-2F35-4D90-90CD-A833D4B38AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lab Credentials" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Course name</t>
   </si>
@@ -102,13 +92,112 @@
   </si>
   <si>
     <t>Docker Introduction, Docker commands, running docker image using spring boot.</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Trainer</t>
+  </si>
+  <si>
+    <t>23SHA3316-TR</t>
+  </si>
+  <si>
+    <t>rps@2345</t>
+  </si>
+  <si>
+    <t>23SHA3316-01</t>
+  </si>
+  <si>
+    <t>23SHA3316-02</t>
+  </si>
+  <si>
+    <t>23SHA3316-03</t>
+  </si>
+  <si>
+    <t>23SHA3316-04</t>
+  </si>
+  <si>
+    <t>23SHA3316-05</t>
+  </si>
+  <si>
+    <t>23SHA3316-06</t>
+  </si>
+  <si>
+    <t>23SHA3316-07</t>
+  </si>
+  <si>
+    <t>23SHA3316-08</t>
+  </si>
+  <si>
+    <t>23SHA3316-09</t>
+  </si>
+  <si>
+    <t>23SHA3316-10</t>
+  </si>
+  <si>
+    <t>23SHA3316-11</t>
+  </si>
+  <si>
+    <t>23SHA3316-12</t>
+  </si>
+  <si>
+    <t>23SHA3316-13</t>
+  </si>
+  <si>
+    <t>23SHA3316-14</t>
+  </si>
+  <si>
+    <t>23SHA3316-15</t>
+  </si>
+  <si>
+    <t>Trainee Name</t>
+  </si>
+  <si>
+    <t>Ankita Sen</t>
+  </si>
+  <si>
+    <t>Dhiraj Kumar F</t>
+  </si>
+  <si>
+    <t>Ganesh Dande</t>
+  </si>
+  <si>
+    <t>Jitendra Sharma B</t>
+  </si>
+  <si>
+    <t>Md Raibul Hossain</t>
+  </si>
+  <si>
+    <t>Paramesha Muniyappa</t>
+  </si>
+  <si>
+    <t>Prajjwal Mishra</t>
+  </si>
+  <si>
+    <t>S Jawaharelavarasan</t>
+  </si>
+  <si>
+    <t>Soumee Banerjee</t>
+  </si>
+  <si>
+    <t>Swarup Ganguly</t>
+  </si>
+  <si>
+    <t>https://hydcloud.rpsconsulting.in/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +213,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -354,26 +488,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,28 +576,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,148 +957,148 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD3FDC2-302C-45F3-81ED-A00CEC83C9C4}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="115.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="115.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="9">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="13" t="s">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="12"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6" t="s">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="16"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="16"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="16"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="14"/>
+      <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
-      <c r="B13" s="10">
+      <c r="B13" s="11">
         <v>4</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="17"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="9">
         <v>5</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6" t="s">
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="12"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -880,4 +1116,232 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB3EF97F-2D73-4AC2-82C5-27961E4CD983}">
+  <dimension ref="B3:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="23"/>
+      <c r="C5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="30">
+        <v>1</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="30">
+        <v>2</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="26"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="30">
+        <v>3</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="30">
+        <v>4</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="26"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="30">
+        <v>5</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="26"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="30">
+        <v>6</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="30">
+        <v>7</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="30">
+        <v>8</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="30">
+        <v>9</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="26"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="30">
+        <v>10</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="27"/>
+      <c r="C16" s="19">
+        <v>11</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="21"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="23"/>
+      <c r="C17" s="19">
+        <v>12</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="23"/>
+      <c r="C18" s="19">
+        <v>13</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="21"/>
+    </row>
+    <row r="19" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="23"/>
+      <c r="C19" s="19">
+        <v>14</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="21"/>
+    </row>
+    <row r="20" spans="2:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="23"/>
+      <c r="C20" s="19">
+        <v>15</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:E20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{E6A96348-05DF-4599-9A91-D78EDCE78960}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>